--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H2">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.6110729568463</v>
+        <v>23.68145933333333</v>
       </c>
       <c r="N2">
-        <v>23.6110729568463</v>
+        <v>71.04437799999999</v>
       </c>
       <c r="O2">
-        <v>0.2464251172170327</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="P2">
-        <v>0.2464251172170327</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="Q2">
-        <v>1180.770720800823</v>
+        <v>1221.763824774215</v>
       </c>
       <c r="R2">
-        <v>1180.770720800823</v>
+        <v>10995.87442296794</v>
       </c>
       <c r="S2">
-        <v>0.06928373920882028</v>
+        <v>0.06181995956810252</v>
       </c>
       <c r="T2">
-        <v>0.06928373920882028</v>
+        <v>0.06181995956810252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H3">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.3020186493574</v>
+        <v>62.46631733333334</v>
       </c>
       <c r="N3">
-        <v>62.3020186493574</v>
+        <v>187.398952</v>
       </c>
       <c r="O3">
-        <v>0.6502365342136619</v>
+        <v>0.6173856880862099</v>
       </c>
       <c r="P3">
-        <v>0.6502365342136619</v>
+        <v>0.6173856880862097</v>
       </c>
       <c r="Q3">
-        <v>3115.673718106793</v>
+        <v>3222.735799786995</v>
       </c>
       <c r="R3">
-        <v>3115.673718106793</v>
+        <v>29004.62219808296</v>
       </c>
       <c r="S3">
-        <v>0.1828174780610091</v>
+        <v>0.163067028832947</v>
       </c>
       <c r="T3">
-        <v>0.1828174780610091</v>
+        <v>0.163067028832947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H4">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>9.90130111274728</v>
+        <v>0.08293366666666667</v>
       </c>
       <c r="N4">
-        <v>9.90130111274728</v>
+        <v>0.248801</v>
       </c>
       <c r="O4">
-        <v>0.1033383485693055</v>
+        <v>0.0008196746830341778</v>
       </c>
       <c r="P4">
-        <v>0.1033383485693055</v>
+        <v>0.0008196746830341776</v>
       </c>
       <c r="Q4">
-        <v>495.1560851610774</v>
+        <v>4.27867862208111</v>
       </c>
       <c r="R4">
-        <v>495.1560851610774</v>
+        <v>38.50810759872999</v>
       </c>
       <c r="S4">
-        <v>0.02905412919511865</v>
+        <v>0.0002164966207530662</v>
       </c>
       <c r="T4">
-        <v>0.02905412919511865</v>
+        <v>0.0002164966207530662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.2534690179382</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H5">
-        <v>19.2534690179382</v>
+        <v>154.77473</v>
       </c>
       <c r="I5">
-        <v>0.1082444117297882</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J5">
-        <v>0.1082444117297882</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.6110729568463</v>
+        <v>14.948048</v>
       </c>
       <c r="N5">
-        <v>23.6110729568463</v>
+        <v>44.844144</v>
       </c>
       <c r="O5">
-        <v>0.2464251172170327</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="P5">
-        <v>0.2464251172170327</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="Q5">
-        <v>454.5950616549188</v>
+        <v>771.1933644090133</v>
       </c>
       <c r="R5">
-        <v>454.5950616549188</v>
+        <v>6940.740279681119</v>
       </c>
       <c r="S5">
-        <v>0.02667414184860182</v>
+        <v>0.03902156999595615</v>
       </c>
       <c r="T5">
-        <v>0.02667414184860182</v>
+        <v>0.03902156999595615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.3020186493574</v>
+        <v>23.68145933333333</v>
       </c>
       <c r="N6">
-        <v>62.3020186493574</v>
+        <v>71.04437799999999</v>
       </c>
       <c r="O6">
-        <v>0.6502365342136619</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="P6">
-        <v>0.6502365342136619</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="Q6">
-        <v>1199.529985820411</v>
+        <v>457.5531069364312</v>
       </c>
       <c r="R6">
-        <v>1199.529985820411</v>
+        <v>4117.977962427881</v>
       </c>
       <c r="S6">
-        <v>0.07038447113117414</v>
+        <v>0.02315170411621671</v>
       </c>
       <c r="T6">
-        <v>0.07038447113117414</v>
+        <v>0.02315170411621671</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.90130111274728</v>
+        <v>62.46631733333334</v>
       </c>
       <c r="N7">
-        <v>9.90130111274728</v>
+        <v>187.398952</v>
       </c>
       <c r="O7">
-        <v>0.1033383485693055</v>
+        <v>0.6173856880862099</v>
       </c>
       <c r="P7">
-        <v>0.1033383485693055</v>
+        <v>0.6173856880862097</v>
       </c>
       <c r="Q7">
-        <v>190.6343942115568</v>
+        <v>1206.921295365991</v>
       </c>
       <c r="R7">
-        <v>190.6343942115568</v>
+        <v>10862.29165829392</v>
       </c>
       <c r="S7">
-        <v>0.01118579875001227</v>
+        <v>0.06106894325111971</v>
       </c>
       <c r="T7">
-        <v>0.01118579875001227</v>
+        <v>0.06106894325111971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.9039889621471</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>97.9039889621471</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.5504233902645641</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J8">
-        <v>0.5504233902645641</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>23.6110729568463</v>
+        <v>0.08293366666666667</v>
       </c>
       <c r="N8">
-        <v>23.6110729568463</v>
+        <v>0.248801</v>
       </c>
       <c r="O8">
-        <v>0.2464251172170327</v>
+        <v>0.0008196746830341778</v>
       </c>
       <c r="P8">
-        <v>0.2464251172170327</v>
+        <v>0.0008196746830341776</v>
       </c>
       <c r="Q8">
-        <v>2311.61822615153</v>
+        <v>1.602374090162223</v>
       </c>
       <c r="R8">
-        <v>2311.61822615153</v>
+        <v>14.42136681146</v>
       </c>
       <c r="S8">
-        <v>0.1356381484649418</v>
+        <v>8.107843713993574E-05</v>
       </c>
       <c r="T8">
-        <v>0.1356381484649418</v>
+        <v>8.107843713993573E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.9039889621471</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>97.9039889621471</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.5504233902645641</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J9">
-        <v>0.5504233902645641</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.3020186493574</v>
+        <v>14.948048</v>
       </c>
       <c r="N9">
-        <v>62.3020186493574</v>
+        <v>44.844144</v>
       </c>
       <c r="O9">
-        <v>0.6502365342136619</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="P9">
-        <v>0.6502365342136619</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="Q9">
-        <v>6099.61614616617</v>
+        <v>288.8135274420267</v>
       </c>
       <c r="R9">
-        <v>6099.61614616617</v>
+        <v>2599.321746978241</v>
       </c>
       <c r="S9">
-        <v>0.357905397635764</v>
+        <v>0.01461365955280817</v>
       </c>
       <c r="T9">
-        <v>0.357905397635764</v>
+        <v>0.01461365955280817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H10">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I10">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J10">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.90130111274728</v>
+        <v>23.68145933333333</v>
       </c>
       <c r="N10">
-        <v>9.90130111274728</v>
+        <v>71.04437799999999</v>
       </c>
       <c r="O10">
-        <v>0.1033383485693055</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="P10">
-        <v>0.1033383485693055</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="Q10">
-        <v>969.3768748533045</v>
+        <v>2661.144015340662</v>
       </c>
       <c r="R10">
-        <v>969.3768748533045</v>
+        <v>23950.29613806595</v>
       </c>
       <c r="S10">
-        <v>0.05687984416385838</v>
+        <v>0.1346510774810834</v>
       </c>
       <c r="T10">
-        <v>0.05687984416385838</v>
+        <v>0.1346510774810834</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.7036763212145</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H11">
-        <v>10.7036763212145</v>
+        <v>337.117402</v>
       </c>
       <c r="I11">
-        <v>0.06017685154069964</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J11">
-        <v>0.06017685154069964</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.6110729568463</v>
+        <v>62.46631733333334</v>
       </c>
       <c r="N11">
-        <v>23.6110729568463</v>
+        <v>187.398952</v>
       </c>
       <c r="O11">
-        <v>0.2464251172170327</v>
+        <v>0.6173856880862099</v>
       </c>
       <c r="P11">
-        <v>0.2464251172170327</v>
+        <v>0.6173856880862097</v>
       </c>
       <c r="Q11">
-        <v>252.7252825266638</v>
+        <v>7019.494203973633</v>
       </c>
       <c r="R11">
-        <v>252.7252825266638</v>
+        <v>63175.4478357627</v>
       </c>
       <c r="S11">
-        <v>0.01482908769466889</v>
+        <v>0.3551789953826583</v>
       </c>
       <c r="T11">
-        <v>0.01482908769466889</v>
+        <v>0.3551789953826583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.7036763212145</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H12">
-        <v>10.7036763212145</v>
+        <v>337.117402</v>
       </c>
       <c r="I12">
-        <v>0.06017685154069964</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J12">
-        <v>0.06017685154069964</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>62.3020186493574</v>
+        <v>0.08293366666666667</v>
       </c>
       <c r="N12">
-        <v>62.3020186493574</v>
+        <v>0.248801</v>
       </c>
       <c r="O12">
-        <v>0.6502365342136619</v>
+        <v>0.0008196746830341778</v>
       </c>
       <c r="P12">
-        <v>0.6502365342136619</v>
+        <v>0.0008196746830341776</v>
       </c>
       <c r="Q12">
-        <v>666.860641780991</v>
+        <v>9.319460748333555</v>
       </c>
       <c r="R12">
-        <v>666.860641780991</v>
+        <v>83.87514673500199</v>
       </c>
       <c r="S12">
-        <v>0.03912918738571459</v>
+        <v>0.0004715548741713389</v>
       </c>
       <c r="T12">
-        <v>0.03912918738571459</v>
+        <v>0.0004715548741713389</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.7036763212145</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H13">
-        <v>10.7036763212145</v>
+        <v>337.117402</v>
       </c>
       <c r="I13">
-        <v>0.06017685154069964</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J13">
-        <v>0.06017685154069964</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.90130111274728</v>
+        <v>14.948048</v>
       </c>
       <c r="N13">
-        <v>9.90130111274728</v>
+        <v>44.844144</v>
       </c>
       <c r="O13">
-        <v>0.1033383485693055</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="P13">
-        <v>0.1033383485693055</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="Q13">
-        <v>105.9803222697278</v>
+        <v>1679.749035577099</v>
       </c>
       <c r="R13">
-        <v>105.9803222697278</v>
+        <v>15117.74132019389</v>
       </c>
       <c r="S13">
-        <v>0.006218576460316167</v>
+        <v>0.0849935276837368</v>
       </c>
       <c r="T13">
-        <v>0.006218576460316167</v>
+        <v>0.0849935276837368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12.044915</v>
+      </c>
+      <c r="H14">
+        <v>36.134745</v>
+      </c>
+      <c r="I14">
+        <v>0.06166440420330686</v>
+      </c>
+      <c r="J14">
+        <v>0.06166440420330688</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.68145933333333</v>
+      </c>
+      <c r="N14">
+        <v>71.04437799999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2340556429375698</v>
+      </c>
+      <c r="P14">
+        <v>0.2340556429375698</v>
+      </c>
+      <c r="Q14">
+        <v>285.2411647459567</v>
+      </c>
+      <c r="R14">
+        <v>2567.17048271361</v>
+      </c>
+      <c r="S14">
+        <v>0.01443290177216717</v>
+      </c>
+      <c r="T14">
+        <v>0.01443290177216717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>12.044915</v>
+      </c>
+      <c r="H15">
+        <v>36.134745</v>
+      </c>
+      <c r="I15">
+        <v>0.06166440420330686</v>
+      </c>
+      <c r="J15">
+        <v>0.06166440420330688</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>62.46631733333334</v>
+      </c>
+      <c r="N15">
+        <v>187.398952</v>
+      </c>
+      <c r="O15">
+        <v>0.6173856880862099</v>
+      </c>
+      <c r="P15">
+        <v>0.6173856880862097</v>
+      </c>
+      <c r="Q15">
+        <v>752.4014826430268</v>
+      </c>
+      <c r="R15">
+        <v>6771.61334378724</v>
+      </c>
+      <c r="S15">
+        <v>0.03807072061948478</v>
+      </c>
+      <c r="T15">
+        <v>0.03807072061948478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>12.044915</v>
+      </c>
+      <c r="H16">
+        <v>36.134745</v>
+      </c>
+      <c r="I16">
+        <v>0.06166440420330686</v>
+      </c>
+      <c r="J16">
+        <v>0.06166440420330688</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.08293366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.248801</v>
+      </c>
+      <c r="O16">
+        <v>0.0008196746830341778</v>
+      </c>
+      <c r="P16">
+        <v>0.0008196746830341776</v>
+      </c>
+      <c r="Q16">
+        <v>0.9989289656383334</v>
+      </c>
+      <c r="R16">
+        <v>8.990360690745</v>
+      </c>
+      <c r="S16">
+        <v>5.054475096983697E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.054475096983697E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12.044915</v>
+      </c>
+      <c r="H17">
+        <v>36.134745</v>
+      </c>
+      <c r="I17">
+        <v>0.06166440420330686</v>
+      </c>
+      <c r="J17">
+        <v>0.06166440420330688</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.948048</v>
+      </c>
+      <c r="N17">
+        <v>44.844144</v>
+      </c>
+      <c r="O17">
+        <v>0.1477389942931862</v>
+      </c>
+      <c r="P17">
+        <v>0.1477389942931862</v>
+      </c>
+      <c r="Q17">
+        <v>180.04796757592</v>
+      </c>
+      <c r="R17">
+        <v>1620.43170818328</v>
+      </c>
+      <c r="S17">
+        <v>0.00911023706068508</v>
+      </c>
+      <c r="T17">
+        <v>0.00911023706068508</v>
       </c>
     </row>
   </sheetData>
